--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/KNN/0.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/KNN/0.xlsx
@@ -1712,178 +1712,178 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.11328125</t>
+          <t>1.4453125</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.4208984375</t>
+          <t>1.4306640625</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.48193359375</t>
+          <t>1.494140625</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.3313802083333333</t>
+          <t>1.3623046875</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.3118489583333333</t>
+          <t>1.396484375</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.9407552083333334</t>
+          <t>1.0009765625</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.43310546875</t>
+          <t>1.4680989583333333</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.96435546875</t>
+          <t>0.947265625</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.337890625</t>
+          <t>1.3346354166666667</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.07421875</t>
+          <t>0.8984375</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.9700520833333334</t>
+          <t>1.02783203125</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.4208984375</t>
+          <t>1.2548828125</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.48193359375</t>
+          <t>1.3818359375</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.3313802083333333</t>
+          <t>1.2109375</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.3118489583333333</t>
+          <t>1.23046875</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.26953125</t>
+          <t>1.40625</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.98876953125</t>
+          <t>1.0091145833333333</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.1767578125</t>
+          <t>0.94482421875</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.97412109375</t>
+          <t>1.0677083333333333</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.7080078125</t>
+          <t>0.6787109375</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.712890625</t>
+          <t>0.71044921875</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.80810546875</t>
+          <t>0.6884765625</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.19873046875</t>
+          <t>1.03271484375</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.3313802083333333</t>
+          <t>1.0009765625</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.3118489583333333</t>
+          <t>1.09619140625</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.9407552083333334</t>
+          <t>0.9326171875</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.43310546875</t>
+          <t>1.0416666666666667</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.8837890625</t>
+          <t>1.06689453125</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.337890625</t>
+          <t>0.9049479166666666</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1.07421875</t>
+          <t>1.279296875</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.966796875</t>
+          <t>0.95458984375</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.80810546875</t>
+          <t>0.7568359375</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.48193359375</t>
+          <t>1.1962890625</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.2076822916666667</t>
+          <t>1.1376953125</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1893,143 +1893,143 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.8756510416666666</t>
+          <t>0.91796875</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.43310546875</t>
+          <t>1.4290364583333333</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.1767578125</t>
+          <t>1.083984375</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.97412109375</t>
+          <t>0.9309895833333334</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1.07421875</t>
+          <t>1.4453125</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1.2337239583333333</t>
+          <t>1.01318359375</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.03271484375</t>
+          <t>0.859375</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.7373046875</t>
+          <t>0.71044921875</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.8365885416666666</t>
+          <t>1.005859375</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.3118489583333333</t>
+          <t>1.25244140625</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.693359375</t>
+          <t>0.6787109375</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.43310546875</t>
+          <t>1.26953125</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.1767578125</t>
+          <t>1.044921875</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.6884765625</t>
+          <t>0.7486979166666666</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.82763671875</t>
+          <t>0.91796875</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.9147135416666666</t>
+          <t>1.0791015625</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.4208984375</t>
+          <t>1.0009765625</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.69580078125</t>
+          <t>0.99365234375</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.3313802083333333</t>
+          <t>1.3671875</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.3118489583333333</t>
+          <t>1.01806640625</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.26953125</t>
+          <t>1.38671875</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.43310546875</t>
+          <t>1.3736979166666667</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.1767578125</t>
+          <t>1.33056640625</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.337890625</t>
+          <t>1.2467447916666667</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.07421875</t>
+          <t>1.2158203125</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.2337239583333333</t>
+          <t>1.09619140625</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.4208984375</t>
+          <t>1.0009765625</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2039,547 +2039,547 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.3313802083333333</t>
+          <t>1.328125</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.0400390625</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.03515625</t>
+          <t>1.083984375</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.43310546875</t>
+          <t>1.0872395833333333</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.96435546875</t>
+          <t>1.025390625</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.337890625</t>
+          <t>1.005859375</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1.07421875</t>
+          <t>1.1376953125</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.2337239583333333</t>
+          <t>1.4111328125</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.80810546875</t>
+          <t>0.6884765625</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.48193359375</t>
+          <t>1.41357421875</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.0188802083333333</t>
+          <t>0.8935546875</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.0188802083333333</t>
+          <t>0.89599609375</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.9830729166666666</t>
+          <t>1.0009765625</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.43310546875</t>
+          <t>1.2955729166666667</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.1767578125</t>
+          <t>1.25732421875</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.337890625</t>
+          <t>1.4322916666666667</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.947265625</t>
+          <t>1.0107421875</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.712890625</t>
+          <t>0.71044921875</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.4208984375</t>
+          <t>1.0595703125</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.7373046875</t>
+          <t>1.0546875</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.693359375</t>
+          <t>0.6787109375</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.3118489583333333</t>
+          <t>1.25244140625</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.26953125</t>
+          <t>1.2109375</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.43310546875</t>
+          <t>1.0677083333333333</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.96435546875</t>
+          <t>1.025390625</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.337890625</t>
+          <t>1.1002604166666667</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.7080078125</t>
+          <t>0.7568359375</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.2337239583333333</t>
+          <t>1.30615234375</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.4208984375</t>
+          <t>1.416015625</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.03271484375</t>
+          <t>1.05712890625</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.3313802083333333</t>
+          <t>1.318359375</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.3118489583333333</t>
+          <t>1.2548828125</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.26953125</t>
+          <t>0.8984375</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>0.6803385416666666</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>0.68603515625</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0.70556640625</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.98388671875</t>
+          <t>1.0677083333333333</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1.07421875</t>
+          <t>1.2255859375</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.2337239583333333</t>
+          <t>1.30859375</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.03271484375</t>
+          <t>0.908203125</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.7373046875</t>
+          <t>1.044921875</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.3313802083333333</t>
+          <t>1.2646484375</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.3118489583333333</t>
+          <t>1.44287109375</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.26953125</t>
+          <t>1.1181640625</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.43310546875</t>
+          <t>1.3020833333333333</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.1767578125</t>
+          <t>1.47705078125</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.337890625</t>
+          <t>1.2141927083333333</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.9375</t>
+          <t>1.083984375</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1.2337239583333333</t>
+          <t>1.1279296875</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.4208984375</t>
+          <t>0.9814453125</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.48193359375</t>
+          <t>1.00830078125</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.8365885416666666</t>
+          <t>1.005859375</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.103515625</t>
+          <t>1.05712890625</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.26953125</t>
+          <t>1.2646484375</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.43310546875</t>
+          <t>1.396484375</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1.1767578125</t>
+          <t>1.47705078125</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1.201171875</t>
+          <t>1.1783854166666667</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.82763671875</t>
+          <t>1.083984375</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.2337239583333333</t>
+          <t>1.23779296875</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.80810546875</t>
+          <t>0.6884765625</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.48193359375</t>
+          <t>1.064453125</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.3313802083333333</t>
+          <t>1.09375</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.3118489583333333</t>
+          <t>1.25244140625</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.26953125</t>
+          <t>1.318359375</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.8544921875</t>
+          <t>0.9733072916666666</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.96435546875</t>
+          <t>1.025390625</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.337890625</t>
+          <t>1.1002604166666667</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1.07421875</t>
+          <t>1.1572265625</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.2337239583333333</t>
+          <t>1.40380859375</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.4208984375</t>
+          <t>1.318359375</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.48193359375</t>
+          <t>1.42333984375</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.3313802083333333</t>
+          <t>1.4111328125</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.0400390625</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.26953125</t>
+          <t>1.1767578125</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.927734375</t>
+          <t>1.025390625</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.1767578125</t>
+          <t>1.39892578125</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.6884765625</t>
+          <t>0.68359375</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.07421875</t>
+          <t>1.2548828125</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.966796875</t>
+          <t>1.0205078125</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.4208984375</t>
+          <t>1.2646484375</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.90087890625</t>
+          <t>0.69580078125</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.0319010416666667</t>
+          <t>1.0205078125</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.9147135416666666</t>
+          <t>0.93017578125</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.26953125</t>
+          <t>1.0009765625</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.98388671875</t>
+          <t>1.0677083333333333</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.96435546875</t>
+          <t>1.06689453125</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.201171875</t>
+          <t>1.40625</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1.07421875</t>
+          <t>1.3427734375</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.2337239583333333</t>
+          <t>1.27685546875</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.4208984375</t>
+          <t>1.1767578125</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.48193359375</t>
+          <t>1.06689453125</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.0188802083333333</t>
+          <t>0.9326171875</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.3118489583333333</t>
+          <t>1.48681640625</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.26953125</t>
+          <t>1.318359375</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.98388671875</t>
+          <t>0.87890625</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1.1767578125</t>
+          <t>1.240234375</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.337890625</t>
+          <t>1.4876302083333333</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.82763671875</t>
+          <t>0.7373046875</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.9700520833333334</t>
+          <t>0.9619140625</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.95947265625</t>
+          <t>0.869140625</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.03271484375</t>
+          <t>0.908203125</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.3313802083333333</t>
+          <t>1.4013671875</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.1946614583333333</t>
+          <t>1.1279296875</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.693359375</t>
+          <t>0.9423828125</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.43310546875</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1.1767578125</t>
+          <t>1.025390625</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2589,267 +2589,267 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.3720703125</t>
+          <t>1.1376953125</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.2337239583333333</t>
+          <t>1.32568359375</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.4208984375</t>
+          <t>1.0888671875</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.48193359375</t>
+          <t>1.0546875</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.0319010416666667</t>
+          <t>1.0400390625</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.0188802083333333</t>
+          <t>0.97412109375</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.26953125</t>
+          <t>1.4453125</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.43310546875</t>
+          <t>1.396484375</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.1767578125</t>
+          <t>1.07177734375</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.8984375</t>
+          <t>0.6868489583333334</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1.07421875</t>
+          <t>1.3623046875</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.2337239583333333</t>
+          <t>1.02783203125</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.4208984375</t>
+          <t>1.240234375</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.7373046875</t>
+          <t>1.0546875</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.966796875</t>
+          <t>1.083984375</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.8268229166666666</t>
+          <t>1.0791015625</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.26953125</t>
+          <t>1.2353515625</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.43310546875</t>
+          <t>1.2858072916666667</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.96435546875</t>
+          <t>1.04248046875</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1.337890625</t>
+          <t>0.8984375</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.7080078125</t>
+          <t>0.68359375</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.0416666666666667</t>
+          <t>1.02783203125</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.4208984375</t>
+          <t>1.357421875</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.48193359375</t>
+          <t>1.2841796875</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.3313802083333333</t>
+          <t>1.4111328125</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.693359375</t>
+          <t>0.95947265625</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.7161458333333334</t>
+          <t>0.68359375</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.68603515625</t>
+          <t>0.72265625</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1.1767578125</t>
+          <t>1.240234375</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.337890625</t>
+          <t>1.4876302083333333</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.07421875</t>
+          <t>1.3818359375</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.9830729166666666</t>
+          <t>1.01318359375</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.4208984375</t>
+          <t>1.3818359375</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1.03271484375</t>
+          <t>0.908203125</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.986328125</t>
+          <t>0.6982421875</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.3118489583333333</t>
+          <t>1.01806640625</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.26953125</t>
+          <t>1.2060546875</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.43310546875</t>
+          <t>1.1881510416666667</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1.1767578125</t>
+          <t>1.025390625</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1.0595703125</t>
+          <t>1.0579427083333333</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1.07421875</t>
+          <t>0.8740234375</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.2337239583333333</t>
+          <t>1.41845703125</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.4208984375</t>
+          <t>1.38671875</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.48193359375</t>
+          <t>1.3330078125</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.3313802083333333</t>
+          <t>0.8935546875</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.3118489583333333</t>
+          <t>1.0400390625</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.26953125</t>
+          <t>1.40625</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.43310546875</t>
+          <t>1.4973958333333333</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1.1767578125</t>
+          <t>1.37939453125</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.337890625</t>
+          <t>1.34765625</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1.07421875</t>
+          <t>1.455078125</t>
         </is>
       </c>
     </row>
@@ -2892,170 +2892,170 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.18408535024026723</t>
+          <t>0.06801190387845277</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.1770535204265836</t>
+          <t>0.0913890878827984</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.432902063433786</t>
+          <t>0.848909339454839</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.21866909347572502</t>
+          <t>0.07055078112230469</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.231613887943841</t>
+          <t>0.06007320792954524</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.12958062247230528</t>
+          <t>0.9414454017935643</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.2412689050468813</t>
+          <t>0.06359525644653254</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.23996902099712575</t>
+          <t>0.08775797379946461</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.15124164391763872</t>
+          <t>0.8460324119484592</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.16889793210289683</t>
+          <t>0.08034236638025002</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.17326567220686134</t>
+          <t>0.0630998436685551</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.4534315630539224</t>
+          <t>0.9275103405475019</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.1795283950402443</t>
+          <t>0.07113736430421584</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.1777499295107061</t>
+          <t>0.07749301878956971</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.11264707907837046</t>
+          <t>0.831343661457411</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.17465540907043078</t>
+          <t>0.07316168907585459</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.16465077659027516</t>
+          <t>0.05347839964326393</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.4304290629427241</t>
+          <t>0.9399134790528233</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.2412946904558265</t>
+          <t>0.0707518347739496</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.2074320399623632</t>
+          <t>0.09627035058711583</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.21153103189303757</t>
+          <t>0.8301685821264673</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0.18033365133050777</t>
+          <t>0.07292564690067917</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.1712049237863952</t>
+          <t>0.05034702557426058</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.2790574400131822</t>
+          <t>0.9376529657792834</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.17570267656754654</t>
+          <t>0.07234798363419676</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.21182564919459243</t>
+          <t>0.054708281472653934</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.3279960781189135</t>
+          <t>0.9551749419308468</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.20363774967508394</t>
+          <t>0.06089866891861202</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.20496910467173848</t>
+          <t>0.11086731472124525</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.3830398040469569</t>
+          <t>0.8194957652498749</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/KNN/0.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/KNN/0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KNN-values" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KNN-predicts" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KNN-10" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="KNN-values" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="KNN-predicts" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="KNN-10" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -47,15 +47,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -424,7 +424,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -497,349 +497,349 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>0.830078125</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.19140625</t>
+          <t>1.357421875</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>1.23046875</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.19140625</t>
+          <t>1.298828125</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.19140625</t>
+          <t>1.005859375</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.025390625</t>
+          <t>0.87890625</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.396484375</t>
+          <t>1.435546875</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.966796875</t>
+          <t>1.298828125</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.849609375</t>
+          <t>1.46484375</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.025390625</t>
+          <t>0.693359375</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.259765625</t>
+          <t>0.908203125</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.46484375</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.2109375</t>
+          <t>1.201171875</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.171875</t>
+          <t>1.083984375</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>0.72265625</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.396484375</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.947265625</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.11328125</t>
+          <t>1.23046875</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.68359375</t>
+          <t>1.435546875</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.693359375</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>1.513671875</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.72265625</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>0.68359375</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1.103515625</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.015625</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>1.34765625</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>1.083984375</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.966796875</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>1.298828125</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.849609375</t>
+          <t>1.6015625</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>1.455078125</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1.09375</t>
+          <t>1.6015625</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>0.91796875</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1.2109375</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>0.72265625</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1.26953125</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.240234375</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.703125</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.201171875</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.3671875</t>
+          <t>1.201171875</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>1.15234375</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>1.328125</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1.455078125</t>
+          <t>1.005859375</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>1.064453125</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.07421875</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.830078125</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>1.005859375</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.87890625</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0.80078125</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.91796875</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.23046875</t>
+          <t>1.2109375</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.703125</t>
+          <t>1.09375</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.328125</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.044921875</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.72265625</t>
+          <t>1.298828125</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.455078125</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>1.2109375</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>0.673828125</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.07421875</t>
+          <t>0.986328125</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>1.171875</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.986328125</t>
+          <t>1.2109375</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.0546875</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.19140625</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>1.0546875</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.201171875</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.201171875</t>
+          <t>1.025390625</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>1.46484375</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.986328125</t>
+          <t>0.68359375</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.2109375</t>
+          <t>0.91796875</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.044921875</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>0.673828125</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.0546875</t>
+          <t>1.23046875</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -849,455 +849,455 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.986328125</t>
+          <t>1.201171875</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.376953125</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.435546875</t>
+          <t>0.72265625</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>1.484375</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.91796875</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.103515625</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.064453125</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.34765625</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>0.703125</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1.455078125</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.87890625</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.87890625</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.015625</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.298828125</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.103515625</t>
+          <t>1.220703125</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.435546875</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1.025390625</t>
+          <t>1.50390625</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.68359375</t>
+          <t>0.869140625</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.044921875</t>
+          <t>0.966796875</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>1.259765625</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.2109375</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.99609375</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.201171875</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.376953125</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1.3671875</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>0.91796875</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.703125</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.220703125</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.2109375</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.044921875</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>1.025390625</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1.083984375</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.72265625</t>
+          <t>0.908203125</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.435546875</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>1.083984375</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>1.435546875</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1.0546875</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>0.72265625</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.15234375</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.849609375</t>
+          <t>1.6015625</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.693359375</t>
+          <t>1.015625</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.693359375</t>
+          <t>0.830078125</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>0.986328125</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.474609375</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>0.908203125</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>0.849609375</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.07421875</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.201171875</t>
+          <t>1.044921875</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.396484375</t>
+          <t>1.435546875</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>0.966796875</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>1.259765625</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.513671875</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.220703125</t>
+          <t>1.015625</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>0.68359375</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>1.11328125</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1.357421875</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1.15234375</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.34765625</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.0546875</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.830078125</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.91796875</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1.357421875</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>0.908203125</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0.947265625</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0.99609375</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.908203125</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.2109375</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.201171875</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.455078125</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>1.50390625</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1.240234375</t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.791015625</t>
+          <t>1.064453125</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>0.947265625</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.673828125</t>
+          <t>0.908203125</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>1.11328125</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.298828125</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.259765625</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1.103515625</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.083984375</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.298828125</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.357421875</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>1.2109375</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>0.986328125</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>1.015625</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1.083984375</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>0.908203125</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.46484375</t>
+          <t>1.259765625</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>1.455078125</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.396484375</t>
+          <t>1.30859375</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.015625</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.0546875</t>
+          <t>0.80078125</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.26953125</t>
+          <t>0.64453125</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.30859375</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>1.09375</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.68359375</t>
+          <t>0.791015625</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>1.240234375</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>1.201171875</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>1.2109375</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1.34765625</t>
-        </is>
-      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.64453125</t>
+          <t>0.908203125</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.005859375</t>
+          <t>1.15234375</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.791015625</t>
+          <t>0.91796875</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.986328125</t>
+          <t>1.46484375</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.11328125</t>
+          <t>1.259765625</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1.11328125</t>
+          <t>0.693359375</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>1.376953125</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>1.30859375</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.50390625</t>
+          <t>0.78125</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.15234375</t>
+          <t>1.044921875</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>1.0546875</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>1.09375</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.966796875</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.50390625</t>
+          <t>1.376953125</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1307,339 +1307,339 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.87890625</t>
+          <t>1.455078125</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1.23046875</t>
+          <t>0.908203125</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>1.455078125</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.80078125</t>
+          <t>0.693359375</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.966796875</t>
+          <t>1.171875</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.830078125</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>1.34765625</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>1.09375</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>1.474609375</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.240234375</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.07421875</t>
+          <t>1.455078125</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>0.791015625</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.201171875</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>0.72265625</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.240234375</t>
+          <t>1.09375</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.0546875</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.0546875</t>
+          <t>1.064453125</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.0546875</t>
+          <t>1.513671875</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.044921875</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.966796875</t>
+          <t>1.455078125</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.455078125</t>
+          <t>1.015625</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.435546875</t>
+          <t>1.220703125</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.09375</t>
+          <t>1.357421875</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.64453125</t>
+          <t>1.513671875</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.19140625</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.220703125</t>
+          <t>0.869140625</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>1.396484375</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>0.830078125</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>0.791015625</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.23046875</t>
+          <t>1.025390625</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.025390625</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>1.328125</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1.455078125</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>1.044921875</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0.869140625</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>0.703125</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>1.201171875</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>1.005859375</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1.357421875</t>
-        </is>
-      </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>1.435546875</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.947265625</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.791015625</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.80078125</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1.025390625</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>1.50390625</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.07421875</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.693359375</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.78125</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>1.220703125</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1.513671875</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.19140625</t>
+          <t>1.103515625</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.357421875</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>1.201171875</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1.298828125</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>1.455078125</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0.87890625</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.64453125</t>
-        </is>
-      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.99609375</t>
+          <t>1.435546875</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.103515625</t>
+          <t>1.3671875</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.15234375</t>
+          <t>1.513671875</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.99609375</t>
+          <t>1.46484375</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1.2109375</t>
+          <t>1.484375</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.869140625</t>
+          <t>0.830078125</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.396484375</t>
+          <t>0.80078125</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.025390625</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.19140625</t>
+          <t>0.87890625</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.849609375</t>
+          <t>0.80078125</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.025390625</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.50390625</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>0.673828125</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>1.259765625</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.80078125</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1.46484375</t>
+          <t>1.07421875</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1712,406 +1712,406 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>1.0416666666666667</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>1.4453125</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1.4306640625</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.494140625</t>
+          <t>0.8463541666666666</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.3623046875</t>
+          <t>0.99365234375</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.396484375</t>
+          <t>0.71533203125</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.0009765625</t>
+          <t>1.0546875</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4680989583333333</t>
+          <t>1.09619140625</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.947265625</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.3346354166666667</t>
+          <t>1.2369791666666667</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.8984375</t>
+          <t>1.455078125</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.02783203125</t>
+          <t>0.9147135416666666</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.2548828125</t>
+          <t>0.9521484375</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.3818359375</t>
+          <t>1.025390625</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.2109375</t>
+          <t>0.99365234375</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.23046875</t>
+          <t>1.13525390625</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.40625</t>
+          <t>0.7421875</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0091145833333333</t>
+          <t>1.0546875</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.94482421875</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.0677083333333333</t>
+          <t>0.8463541666666666</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.6787109375</t>
+          <t>1.30126953125</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.71044921875</t>
+          <t>1.3411458333333333</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.6884765625</t>
+          <t>1.4794921875</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.03271484375</t>
+          <t>0.72265625</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.0009765625</t>
+          <t>0.673828125</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.09619140625</t>
+          <t>1.13525390625</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.9326171875</t>
+          <t>1.318359375</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0416666666666667</t>
+          <t>1.32568359375</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.06689453125</t>
+          <t>0.8544921875</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.9049479166666666</t>
+          <t>1.044921875</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1.279296875</t>
+          <t>1.24267578125</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.95458984375</t>
+          <t>1.1100260416666667</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.7568359375</t>
+          <t>0.9521484375</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.1962890625</t>
+          <t>1.220703125</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.1376953125</t>
+          <t>1.06689453125</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.693359375</t>
+          <t>0.71533203125</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>0.859375</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.4290364583333333</t>
+          <t>1.0791015625</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>1.279296875</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.9309895833333334</t>
+          <t>1.1555989583333333</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1.4453125</t>
+          <t>1.13525390625</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1.01318359375</t>
+          <t>0.9147135416666666</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.859375</t>
+          <t>1.123046875</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.71044921875</t>
+          <t>1.1653645833333333</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.005859375</t>
+          <t>0.78369140625</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.25244140625</t>
+          <t>1.26220703125</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.6787109375</t>
+          <t>1.318359375</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.26953125</t>
+          <t>1.09619140625</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.044921875</t>
+          <t>0.88134765625</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.7486979166666666</t>
+          <t>1.0611979166666667</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>1.24267578125</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.0791015625</t>
+          <t>1.2825520833333333</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.0009765625</t>
+          <t>0.8642578125</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.99365234375</t>
+          <t>1.2174479166666667</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.3671875</t>
+          <t>1.3037109375</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.01806640625</t>
+          <t>1.123046875</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.38671875</t>
+          <t>0.849609375</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.3736979166666667</t>
+          <t>1.09619140625</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.33056640625</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.2467447916666667</t>
+          <t>1.0611979166666667</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.2158203125</t>
+          <t>0.91796875</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.09619140625</t>
+          <t>1.4485677083333333</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.0009765625</t>
+          <t>0.68115234375</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.99365234375</t>
+          <t>0.9830729166666666</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.328125</t>
+          <t>1.259765625</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.0400390625</t>
+          <t>1.13525390625</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>1.0302734375</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.0872395833333333</t>
+          <t>0.89599609375</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1.025390625</t>
+          <t>0.86181640625</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.005859375</t>
+          <t>1.0221354166666667</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1.1376953125</t>
+          <t>1.24267578125</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.4111328125</t>
+          <t>0.8138020833333334</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.6884765625</t>
+          <t>1.0546875</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.41357421875</t>
+          <t>0.9830729166666666</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.8935546875</t>
+          <t>1.3037109375</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.89599609375</t>
+          <t>0.69091796875</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.0009765625</t>
+          <t>1.318359375</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.2955729166666667</t>
+          <t>0.7763671875</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.25732421875</t>
+          <t>0.9521484375</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2121,740 +2121,740 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1.0107421875</t>
+          <t>1.30126953125</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.71044921875</t>
+          <t>1.1490885416666667</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>1.0546875</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1.2467447916666667</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.19384765625</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.23779296875</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>1.0595703125</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1.0546875</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.6787109375</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.25244140625</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.2109375</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.0677083333333333</t>
+          <t>1.09619140625</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.025390625</t>
+          <t>1.455078125</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.1002604166666667</t>
+          <t>1.0611979166666667</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.7568359375</t>
+          <t>1.24267578125</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.30615234375</t>
+          <t>1.3411458333333333</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.416015625</t>
+          <t>1.0205078125</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.05712890625</t>
+          <t>1.4322916666666667</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.318359375</t>
+          <t>0.71533203125</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.2548828125</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.8984375</t>
+          <t>1.15234375</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.6803385416666666</t>
+          <t>1.23291015625</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.68603515625</t>
+          <t>1.20361328125</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.0677083333333333</t>
+          <t>1.2174479166666667</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1.2255859375</t>
+          <t>1.24267578125</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.30859375</t>
+          <t>1.3411458333333333</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.17431640625</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.044921875</t>
+          <t>1.26953125</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.2646484375</t>
+          <t>0.95703125</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.44287109375</t>
+          <t>1.28173828125</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.1181640625</t>
+          <t>0.9716796875</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.3020833333333333</t>
+          <t>1.09619140625</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.47705078125</t>
+          <t>1.181640625</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.2141927083333333</t>
+          <t>1.2369791666666667</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>0.87158203125</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1.1279296875</t>
+          <t>0.8561197916666666</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.9814453125</t>
+          <t>0.9521484375</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.00830078125</t>
+          <t>1.220703125</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.005859375</t>
+          <t>1.15234375</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.05712890625</t>
+          <t>0.71533203125</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.2646484375</t>
+          <t>0.9912109375</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.396484375</t>
+          <t>1.12060546875</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1.47705078125</t>
+          <t>0.8544921875</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1.1783854166666667</t>
+          <t>1.2760416666666667</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>0.86181640625</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.23779296875</t>
+          <t>1.1100260416666667</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.6884765625</t>
+          <t>1.123046875</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>0.8561197916666666</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.09375</t>
+          <t>1.3037109375</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.25244140625</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.318359375</t>
+          <t>1.162109375</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.9733072916666666</t>
+          <t>1.1767578125</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1.025390625</t>
+          <t>1.0009765625</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.1002604166666667</t>
+          <t>1.0221354166666667</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1.1572265625</t>
+          <t>1.259765625</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.40380859375</t>
+          <t>1.3411458333333333</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.318359375</t>
+          <t>1.123046875</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.42333984375</t>
+          <t>1.26953125</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.4111328125</t>
+          <t>1.259765625</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.0400390625</t>
+          <t>1.12060546875</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.1767578125</t>
+          <t>0.68359375</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.025390625</t>
+          <t>1.2939453125</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.39892578125</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.68359375</t>
+          <t>1.0611979166666667</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.2548828125</t>
+          <t>1.24267578125</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1.0205078125</t>
+          <t>1.1490885416666667</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.2646484375</t>
+          <t>1.21337890625</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.69580078125</t>
+          <t>0.9830729166666666</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.0205078125</t>
+          <t>1.19384765625</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.93017578125</t>
+          <t>1.0888671875</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.0009765625</t>
+          <t>1.494140625</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.0677083333333333</t>
+          <t>1.11328125</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1.06689453125</t>
+          <t>0.86181640625</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.40625</t>
+          <t>1.2760416666666667</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1.3427734375</t>
+          <t>1.24267578125</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.27685546875</t>
+          <t>0.9212239583333334</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.1767578125</t>
+          <t>0.8837890625</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.06689453125</t>
+          <t>1.26953125</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.9326171875</t>
+          <t>1.3037109375</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.48681640625</t>
+          <t>1.13525390625</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.318359375</t>
+          <t>0.859375</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.87890625</t>
+          <t>1.09619140625</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1.240234375</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.4876302083333333</t>
+          <t>1.2760416666666667</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.7373046875</t>
+          <t>0.87158203125</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.9619140625</t>
+          <t>1.3411458333333333</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.869140625</t>
+          <t>1.2109375</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.26953125</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.4013671875</t>
+          <t>1.3037109375</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.1279296875</t>
+          <t>1.33544921875</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.9423828125</t>
+          <t>1.318359375</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.12060546875</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1.025390625</t>
+          <t>1.0791015625</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.337890625</t>
+          <t>0.72265625</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.1376953125</t>
+          <t>1.24267578125</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.32568359375</t>
+          <t>1.3411458333333333</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.0888671875</t>
+          <t>0.78369140625</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.0546875</t>
+          <t>1.4713541666666667</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.0400390625</t>
+          <t>1.45263671875</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.97412109375</t>
+          <t>1.13525390625</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.4453125</t>
+          <t>1.162109375</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.396484375</t>
+          <t>0.89599609375</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.07177734375</t>
+          <t>0.99365234375</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.6868489583333334</t>
+          <t>1.4322916666666667</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1.3623046875</t>
+          <t>1.2060546875</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.02783203125</t>
+          <t>1.2890625</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.240234375</t>
+          <t>1.1669921875</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.0546875</t>
+          <t>1.083984375</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>1.20361328125</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.0791015625</t>
+          <t>1.12060546875</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.2353515625</t>
+          <t>1.0302734375</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.2858072916666667</t>
+          <t>0.95458984375</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1.04248046875</t>
+          <t>1.181640625</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.8984375</t>
+          <t>1.2760416666666667</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.68359375</t>
+          <t>0.88134765625</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.02783203125</t>
+          <t>1.0026041666666667</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>0.78369140625</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.2841796875</t>
+          <t>1.26953125</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.4111328125</t>
+          <t>1.3818359375</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.95947265625</t>
+          <t>1.19873046875</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.68359375</t>
+          <t>0.859375</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.72265625</t>
+          <t>1.12060546875</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>0.9619140625</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>1.240234375</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1.4876302083333333</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.3818359375</t>
+          <t>1.259765625</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1.01318359375</t>
+          <t>1.0416666666666667</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.3818359375</t>
+          <t>1.23779296875</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>0.9830729166666666</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.6982421875</t>
+          <t>1.3037109375</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.01806640625</t>
+          <t>1.13525390625</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.2060546875</t>
+          <t>1.416015625</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.1881510416666667</t>
+          <t>1.2939453125</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1.025390625</t>
+          <t>1.455078125</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1.0579427083333333</t>
+          <t>1.09375</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.8740234375</t>
+          <t>1.20361328125</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.41845703125</t>
+          <t>1.0026041666666667</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.38671875</t>
+          <t>0.91064453125</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.3330078125</t>
+          <t>1.025390625</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.8935546875</t>
+          <t>0.99365234375</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.0400390625</t>
+          <t>0.9619140625</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.40625</t>
+          <t>1.318359375</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.4973958333333333</t>
+          <t>0.84716796875</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1.37939453125</t>
+          <t>1.08642578125</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.0611979166666667</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1.455078125</t>
+          <t>1.24267578125</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2892,174 +2892,174 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.06801190387845277</t>
+          <t>0.1981142836721917</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.0913890878827984</t>
+          <t>0.2285568488619299</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.848909339454839</t>
+          <t>0.21056648869910988</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.07055078112230469</t>
+          <t>0.205160774105915</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.06007320792954524</t>
+          <t>0.20692922914957448</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.9414454017935643</t>
+          <t>0.21909328566038422</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.06359525644653254</t>
+          <t>0.21900161515637362</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.08775797379946461</t>
+          <t>0.18938792826043083</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.8460324119484592</t>
+          <t>0.17463743254837294</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.08034236638025002</t>
+          <t>0.22119745586164302</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.0630998436685551</t>
+          <t>0.17835030550856307</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.9275103405475019</t>
+          <t>0.335777708287902</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.07113736430421584</t>
+          <t>0.21501538910960863</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.07749301878956971</t>
+          <t>0.23344433123966862</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.831343661457411</t>
+          <t>-0.010941457922882147</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.07316168907585459</t>
+          <t>0.1924358235244096</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.05347839964326393</t>
+          <t>0.20928627318436183</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.9399134790528233</t>
+          <t>0.349585396112028</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.0707518347739496</t>
+          <t>0.22101074300080797</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.09627035058711583</t>
+          <t>0.2300222388737743</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.8301685821264673</t>
+          <t>0.18904964605404617</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0.07292564690067917</t>
+          <t>0.21256389534787087</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.05034702557426058</t>
+          <t>0.23443856966674168</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.9376529657792834</t>
+          <t>-0.36894017471535157</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.07234798363419676</t>
+          <t>0.2034098847150257</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.054708281472653934</t>
+          <t>0.24944231658073968</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.9551749419308468</t>
+          <t>0.09060871702126838</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.06089866891861202</t>
+          <t>0.2404694093035246</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.11086731472124525</t>
+          <t>0.18768754884770428</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.8194957652498749</t>
+          <t>0.4274605612061897</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/KNN/0.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/KNN/0.xlsx
@@ -452,14 +452,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>1.376953125</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>0.673828125</t>
         </is>
       </c>
     </row>
@@ -473,133 +473,133 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>0.986328125</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.673828125</t>
+          <t>1.240234375</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>0.869140625</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>1.171875</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.044921875</t>
+          <t>1.083984375</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.2109375</t>
+          <t>1.064453125</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>0.703125</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.220703125</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1.50390625</t>
+          <t>0.64453125</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.005859375</t>
+          <t>1.26953125</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0.791015625</t>
+          <t>1.6015625</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.11328125</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.15234375</t>
+          <t>1.357421875</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>0.830078125</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.23046875</t>
+          <t>0.68359375</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.259765625</t>
+          <t>0.99609375</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>1.513671875</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.64453125</t>
+          <t>1.15234375</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.2109375</t>
+          <t>1.30859375</t>
         </is>
       </c>
     </row>
@@ -632,154 +632,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.99609375</t>
+          <t>1.4225260416666667</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.4615885416666667</t>
+          <t>0.9147135416666666</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.3899739583333333</t>
+          <t>1.4225260416666667</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1.2955729166666667</t>
+          <t>0.9928385416666666</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.9114583333333334</t>
+          <t>1.0904947916666667</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.1979166666666667</t>
+          <t>0.9928385416666666</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.1979166666666667</t>
+          <t>1.015625</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.1979166666666667</t>
+          <t>1.3997395833333333</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.1979166666666667</t>
+          <t>0.947265625</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.4615885416666667</t>
+          <t>0.6998697916666666</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.1979166666666667</t>
+          <t>1.328125</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1.1979166666666667</t>
+          <t>0.6998697916666666</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.1979166666666667</t>
+          <t>1.1555989583333333</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.1979166666666667</t>
+          <t>1.357421875</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1.1979166666666667</t>
+          <t>0.9928385416666666</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.1979166666666667</t>
+          <t>1.23046875</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1.1979166666666667</t>
+          <t>1.38671875</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.1979166666666667</t>
+          <t>0.6998697916666666</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.3020833333333333</t>
+          <t>0.9928385416666666</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.416015625</t>
+          <t>1.435546875</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.9114583333333334</t>
+          <t>1.4485677083333333</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.416015625</t>
+          <t>1.4225260416666667</t>
         </is>
       </c>
     </row>
@@ -822,17 +822,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.18790015400396384</t>
+          <t>0.12966389273241893</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.19083079135600542</t>
+          <t>0.1889920449955103</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.42140505688016194</t>
+          <t>0.5061174743985148</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/KNN/0.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/KNN/0.xlsx
@@ -452,154 +452,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>1.357421875</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.673828125</t>
+          <t>1.11328125</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>1.376953125</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.986328125</t>
+          <t>1.015625</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1.240234375</t>
+          <t>0.91796875</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.869140625</t>
+          <t>1.357421875</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.171875</t>
+          <t>1.083984375</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>1.044921875</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>1.376953125</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.703125</t>
+          <t>0.78125</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.220703125</t>
+          <t>1.259765625</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.64453125</t>
+          <t>0.80078125</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.26953125</t>
+          <t>1.30859375</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.6015625</t>
+          <t>1.50390625</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1.11328125</t>
+          <t>0.693359375</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.435546875</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.830078125</t>
+          <t>1.298828125</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0.68359375</t>
+          <t>1.474609375</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0.99609375</t>
+          <t>1.240234375</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.513671875</t>
+          <t>0.64453125</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1.15234375</t>
+          <t>0.966796875</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.30859375</t>
+          <t>1.083984375</t>
         </is>
       </c>
     </row>
@@ -632,154 +632,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.4225260416666667</t>
+          <t>1.38671875</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.9147135416666666</t>
+          <t>0.95947265625</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.4225260416666667</t>
+          <t>1.4111328125</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.9928385416666666</t>
+          <t>1.0693359375</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1.0904947916666667</t>
+          <t>0.99609375</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.9928385416666666</t>
+          <t>1.29150390625</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.46728515625</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.3997395833333333</t>
+          <t>1.025390625</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.947265625</t>
+          <t>1.4111328125</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.6998697916666666</t>
+          <t>0.68603515625</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.328125</t>
+          <t>1.4111328125</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.6998697916666666</t>
+          <t>0.99609375</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.1555989583333333</t>
+          <t>1.4111328125</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.46728515625</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.9928385416666666</t>
+          <t>0.68603515625</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.23046875</t>
+          <t>1.4111328125</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1.38671875</t>
+          <t>1.4111328125</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0.6998697916666666</t>
+          <t>1.46728515625</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0.9928385416666666</t>
+          <t>0.908203125</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.435546875</t>
+          <t>0.97900390625</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1.4485677083333333</t>
+          <t>0.9619140625</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.4225260416666667</t>
+          <t>1.0693359375</t>
         </is>
       </c>
     </row>
@@ -822,17 +822,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.12966389273241893</t>
+          <t>0.12456000923983787</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.1889920449955103</t>
+          <t>0.15152819172779225</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.5061174743985148</t>
+          <t>0.6432684536637931</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/KNN/0.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/KNN/0.xlsx
@@ -452,154 +452,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>0.91796875</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.11328125</t>
+          <t>1.025390625</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>1.26953125</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.103515625</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>1.50390625</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.298828125</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>0.68359375</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.044921875</t>
+          <t>0.703125</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>1.50390625</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.78125</t>
+          <t>1.015625</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.259765625</t>
+          <t>1.005859375</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.80078125</t>
+          <t>1.34765625</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.30859375</t>
+          <t>0.91796875</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.50390625</t>
+          <t>1.357421875</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.693359375</t>
+          <t>1.357421875</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.435546875</t>
+          <t>1.376953125</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>0.80078125</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>0.908203125</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.240234375</t>
+          <t>0.966796875</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0.64453125</t>
+          <t>1.474609375</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.966796875</t>
+          <t>1.005859375</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>1.435546875</t>
         </is>
       </c>
     </row>
@@ -632,154 +632,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.38671875</t>
+          <t>0.8723958333333334</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.95947265625</t>
+          <t>1.005859375</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.4111328125</t>
+          <t>1.1588541666666667</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1.0693359375</t>
+          <t>1.2630208333333333</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.99609375</t>
+          <t>1.3802083333333333</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.29150390625</t>
+          <t>1.1588541666666667</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.46728515625</t>
+          <t>0.7194010416666666</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.025390625</t>
+          <t>0.693359375</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.4111328125</t>
+          <t>1.1588541666666667</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.68603515625</t>
+          <t>1.2890625</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.4111328125</t>
+          <t>1.0384114583333333</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.99609375</t>
+          <t>1.1588541666666667</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.4111328125</t>
+          <t>1.005859375</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.46728515625</t>
+          <t>1.2890625</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.68603515625</t>
+          <t>1.1588541666666667</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.4111328125</t>
+          <t>1.1588541666666667</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1.4111328125</t>
+          <t>0.8723958333333334</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.46728515625</t>
+          <t>1.1588541666666667</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.005859375</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0.97900390625</t>
+          <t>1.328125</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.9619140625</t>
+          <t>1.1588541666666667</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.0693359375</t>
+          <t>1.2890625</t>
         </is>
       </c>
     </row>
@@ -822,17 +822,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.12456000923983787</t>
+          <t>0.17015302068237</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.15152819172779225</t>
+          <t>0.1569819405501589</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.6432684536637931</t>
+          <t>0.6291745568641094</t>
         </is>
       </c>
     </row>
